--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lrpap1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lrpap1-Lrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.927655000000001</v>
+        <v>8.080435</v>
       </c>
       <c r="H2">
-        <v>23.782965</v>
+        <v>24.241305</v>
       </c>
       <c r="I2">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979475</v>
       </c>
       <c r="J2">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979476</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N2">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q2">
-        <v>53.46994271663167</v>
+        <v>50.95397872301</v>
       </c>
       <c r="R2">
-        <v>481.229484449685</v>
+        <v>458.58580850709</v>
       </c>
       <c r="S2">
-        <v>0.001259711958070082</v>
+        <v>0.002030141822293212</v>
       </c>
       <c r="T2">
-        <v>0.001259711958070082</v>
+        <v>0.002030141822293212</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.927655000000001</v>
+        <v>8.080435</v>
       </c>
       <c r="H3">
-        <v>23.782965</v>
+        <v>24.241305</v>
       </c>
       <c r="I3">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979475</v>
       </c>
       <c r="J3">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979476</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P3">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q3">
-        <v>1447.048204108262</v>
+        <v>1474.935394535148</v>
       </c>
       <c r="R3">
-        <v>13023.43383697436</v>
+        <v>13274.41855081634</v>
       </c>
       <c r="S3">
-        <v>0.03409137608916903</v>
+        <v>0.05876534285779245</v>
       </c>
       <c r="T3">
-        <v>0.03409137608916904</v>
+        <v>0.05876534285779245</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.927655000000001</v>
+        <v>8.080435</v>
       </c>
       <c r="H4">
-        <v>23.782965</v>
+        <v>24.241305</v>
       </c>
       <c r="I4">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979475</v>
       </c>
       <c r="J4">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979476</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N4">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q4">
-        <v>1975.039793979222</v>
+        <v>1029.418272870955</v>
       </c>
       <c r="R4">
-        <v>17775.358145813</v>
+        <v>9264.764455838596</v>
       </c>
       <c r="S4">
-        <v>0.04653046402770913</v>
+        <v>0.04101475764530282</v>
       </c>
       <c r="T4">
-        <v>0.04653046402770913</v>
+        <v>0.04101475764530283</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.927655000000001</v>
+        <v>8.080435</v>
       </c>
       <c r="H5">
-        <v>23.782965</v>
+        <v>24.241305</v>
       </c>
       <c r="I5">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979475</v>
       </c>
       <c r="J5">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979476</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N5">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q5">
-        <v>138.4203550384067</v>
+        <v>156.9543802139133</v>
       </c>
       <c r="R5">
-        <v>1245.78319534566</v>
+        <v>1412.58942192522</v>
       </c>
       <c r="S5">
-        <v>0.003261080293395379</v>
+        <v>0.006253479305247721</v>
       </c>
       <c r="T5">
-        <v>0.003261080293395379</v>
+        <v>0.006253479305247721</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.927655000000001</v>
+        <v>8.080435</v>
       </c>
       <c r="H6">
-        <v>23.782965</v>
+        <v>24.241305</v>
       </c>
       <c r="I6">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979475</v>
       </c>
       <c r="J6">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979476</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N6">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q6">
-        <v>1481.925161225882</v>
+        <v>1044.988977526817</v>
       </c>
       <c r="R6">
-        <v>13337.32645103294</v>
+        <v>9404.900797741351</v>
       </c>
       <c r="S6">
-        <v>0.0349130511781999</v>
+        <v>0.04163513586731134</v>
       </c>
       <c r="T6">
-        <v>0.03491305117819989</v>
+        <v>0.04163513586731134</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>38.941596</v>
       </c>
       <c r="I7">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="J7">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N7">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q7">
-        <v>87.55026580639601</v>
+        <v>81.85323579007201</v>
       </c>
       <c r="R7">
-        <v>787.952392257564</v>
+        <v>736.6791221106481</v>
       </c>
       <c r="S7">
-        <v>0.002062618943749616</v>
+        <v>0.003261250277839666</v>
       </c>
       <c r="T7">
-        <v>0.002062618943749616</v>
+        <v>0.003261250277839666</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>38.941596</v>
       </c>
       <c r="I8">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="J8">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P8">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q8">
         <v>2369.358343541669</v>
@@ -948,10 +948,10 @@
         <v>21324.22509187501</v>
       </c>
       <c r="S8">
-        <v>0.05582031486605982</v>
+        <v>0.09440152831580807</v>
       </c>
       <c r="T8">
-        <v>0.05582031486605983</v>
+        <v>0.09440152831580806</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>38.941596</v>
       </c>
       <c r="I9">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="J9">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N9">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q9">
-        <v>3233.877766757093</v>
+        <v>1653.672956021076</v>
       </c>
       <c r="R9">
-        <v>29104.89990081383</v>
+        <v>14883.05660418969</v>
       </c>
       <c r="S9">
-        <v>0.07618774748478929</v>
+        <v>0.06588672195087246</v>
       </c>
       <c r="T9">
-        <v>0.07618774748478929</v>
+        <v>0.06588672195087246</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>38.941596</v>
       </c>
       <c r="I10">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="J10">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N10">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q10">
-        <v>226.6458174614561</v>
+        <v>252.133870875376</v>
       </c>
       <c r="R10">
-        <v>2039.812357153104</v>
+        <v>2269.204837878384</v>
       </c>
       <c r="S10">
-        <v>0.005339606365689236</v>
+        <v>0.01004568296547226</v>
       </c>
       <c r="T10">
-        <v>0.005339606365689236</v>
+        <v>0.01004568296547226</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>38.941596</v>
       </c>
       <c r="I11">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="J11">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N11">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q11">
-        <v>2426.464947944597</v>
+        <v>1678.68596955908</v>
       </c>
       <c r="R11">
-        <v>21838.18453150137</v>
+        <v>15108.17372603172</v>
       </c>
       <c r="S11">
-        <v>0.05716570386025394</v>
+        <v>0.06688330683310773</v>
       </c>
       <c r="T11">
-        <v>0.05716570386025394</v>
+        <v>0.06688330683310771</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.95152166666666</v>
+        <v>15.25749233333333</v>
       </c>
       <c r="H12">
-        <v>65.85456499999999</v>
+        <v>45.772477</v>
       </c>
       <c r="I12">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="J12">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N12">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q12">
-        <v>148.0572257571205</v>
+        <v>96.21139700018067</v>
       </c>
       <c r="R12">
-        <v>1332.515031814085</v>
+        <v>865.902573001626</v>
       </c>
       <c r="S12">
-        <v>0.003488117777745689</v>
+        <v>0.003833317549020326</v>
       </c>
       <c r="T12">
-        <v>0.003488117777745689</v>
+        <v>0.003833317549020325</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.95152166666666</v>
+        <v>15.25749233333333</v>
       </c>
       <c r="H13">
-        <v>65.85456499999999</v>
+        <v>45.772477</v>
       </c>
       <c r="I13">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="J13">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>547.595047</v>
       </c>
       <c r="O13">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P13">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q13">
-        <v>4006.848179593284</v>
+        <v>2784.975743791269</v>
       </c>
       <c r="R13">
-        <v>36061.63361633955</v>
+        <v>25064.78169412142</v>
       </c>
       <c r="S13">
-        <v>0.09439835372097749</v>
+        <v>0.1109608292274455</v>
       </c>
       <c r="T13">
-        <v>0.0943983537209775</v>
+        <v>0.1109608292274454</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>21.95152166666666</v>
+        <v>15.25749233333333</v>
       </c>
       <c r="H14">
-        <v>65.85456499999999</v>
+        <v>45.772477</v>
       </c>
       <c r="I14">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="J14">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N14">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q14">
-        <v>5468.846566867976</v>
+        <v>1943.74948949182</v>
       </c>
       <c r="R14">
-        <v>49219.61910181179</v>
+        <v>17493.74540542638</v>
       </c>
       <c r="S14">
-        <v>0.1288419449716607</v>
+        <v>0.07744414135213422</v>
       </c>
       <c r="T14">
-        <v>0.1288419449716607</v>
+        <v>0.07744414135213422</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>21.95152166666666</v>
+        <v>15.25749233333333</v>
       </c>
       <c r="H15">
-        <v>65.85456499999999</v>
+        <v>45.772477</v>
       </c>
       <c r="I15">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="J15">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N15">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q15">
-        <v>383.2832562382289</v>
+        <v>296.3615514259898</v>
       </c>
       <c r="R15">
-        <v>3449.54930614406</v>
+        <v>2667.253962833908</v>
       </c>
       <c r="S15">
-        <v>0.009029867560736224</v>
+        <v>0.0118078312066709</v>
       </c>
       <c r="T15">
-        <v>0.009029867560736225</v>
+        <v>0.0118078312066709</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>21.95152166666666</v>
+        <v>15.25749233333333</v>
       </c>
       <c r="H16">
-        <v>65.85456499999999</v>
+        <v>45.772477</v>
       </c>
       <c r="I16">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="J16">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N16">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q16">
-        <v>4103.421791819704</v>
+        <v>1973.150122862599</v>
       </c>
       <c r="R16">
-        <v>36930.79612637733</v>
+        <v>17758.35110576339</v>
       </c>
       <c r="S16">
-        <v>0.09667355597433251</v>
+        <v>0.07861554065997618</v>
       </c>
       <c r="T16">
-        <v>0.09667355597433251</v>
+        <v>0.07861554065997617</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.771175666666667</v>
+        <v>4.142925</v>
       </c>
       <c r="H17">
-        <v>11.313527</v>
+        <v>12.428775</v>
       </c>
       <c r="I17">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="J17">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N17">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q17">
-        <v>25.43558553834922</v>
+        <v>26.12464703955</v>
       </c>
       <c r="R17">
-        <v>228.920269845143</v>
+        <v>235.12182335595</v>
       </c>
       <c r="S17">
-        <v>0.0005992434185497369</v>
+        <v>0.001040875312916212</v>
       </c>
       <c r="T17">
-        <v>0.0005992434185497369</v>
+        <v>0.001040875312916212</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.771175666666667</v>
+        <v>4.142925</v>
       </c>
       <c r="H18">
-        <v>11.313527</v>
+        <v>12.428775</v>
       </c>
       <c r="I18">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="J18">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>547.595047</v>
       </c>
       <c r="O18">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P18">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q18">
-        <v>688.3590388111966</v>
+        <v>756.215070030825</v>
       </c>
       <c r="R18">
-        <v>6195.23134930077</v>
+        <v>6805.935630277425</v>
       </c>
       <c r="S18">
-        <v>0.01621722539018866</v>
+        <v>0.0301296165440499</v>
       </c>
       <c r="T18">
-        <v>0.01621722539018866</v>
+        <v>0.03012961654404989</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.771175666666667</v>
+        <v>4.142925</v>
       </c>
       <c r="H19">
-        <v>11.313527</v>
+        <v>12.428775</v>
       </c>
       <c r="I19">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="J19">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N19">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q19">
-        <v>939.5239842996178</v>
+        <v>527.793701469525</v>
       </c>
       <c r="R19">
-        <v>8455.715858696562</v>
+        <v>4750.143313225725</v>
       </c>
       <c r="S19">
-        <v>0.02213448411920112</v>
+        <v>0.02102870264010121</v>
       </c>
       <c r="T19">
-        <v>0.02213448411920112</v>
+        <v>0.02102870264010121</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.771175666666667</v>
+        <v>4.142925</v>
       </c>
       <c r="H20">
-        <v>11.313527</v>
+        <v>12.428775</v>
       </c>
       <c r="I20">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="J20">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N20">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q20">
-        <v>65.84639148552756</v>
+        <v>80.4721807239</v>
       </c>
       <c r="R20">
-        <v>592.6175233697481</v>
+        <v>724.2496265151</v>
       </c>
       <c r="S20">
-        <v>0.00155129185736499</v>
+        <v>0.003206225376566165</v>
       </c>
       <c r="T20">
-        <v>0.00155129185736499</v>
+        <v>0.003206225376566165</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.771175666666667</v>
+        <v>4.142925</v>
       </c>
       <c r="H21">
-        <v>11.313527</v>
+        <v>12.428775</v>
       </c>
       <c r="I21">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="J21">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N21">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q21">
-        <v>704.9499641238326</v>
+        <v>535.77696741825</v>
       </c>
       <c r="R21">
-        <v>6344.549677114494</v>
+        <v>4821.99270676425</v>
       </c>
       <c r="S21">
-        <v>0.0166080952125585</v>
+        <v>0.02134677715532405</v>
       </c>
       <c r="T21">
-        <v>0.01660809521255849</v>
+        <v>0.02134677715532404</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>19.402266</v>
+        <v>13.51654933333334</v>
       </c>
       <c r="H22">
-        <v>58.20679800000001</v>
+        <v>40.549648</v>
       </c>
       <c r="I22">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="J22">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N22">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q22">
-        <v>130.863168439198</v>
+        <v>85.23327854740268</v>
       </c>
       <c r="R22">
-        <v>1177.768515952782</v>
+        <v>767.0995069266241</v>
       </c>
       <c r="S22">
-        <v>0.00308303861531015</v>
+        <v>0.003395920157106572</v>
       </c>
       <c r="T22">
-        <v>0.00308303861531015</v>
+        <v>0.003395920157106571</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>19.402266</v>
+        <v>13.51654933333334</v>
       </c>
       <c r="H23">
-        <v>58.20679800000001</v>
+        <v>40.549648</v>
       </c>
       <c r="I23">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="J23">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>547.595047</v>
       </c>
       <c r="O23">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P23">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q23">
-        <v>3541.528254058835</v>
+        <v>2467.198489154829</v>
       </c>
       <c r="R23">
-        <v>31873.75428652951</v>
+        <v>22204.78640239346</v>
       </c>
       <c r="S23">
-        <v>0.08343576343674104</v>
+        <v>0.09829973953476509</v>
       </c>
       <c r="T23">
-        <v>0.08343576343674106</v>
+        <v>0.09829973953476508</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>19.402266</v>
+        <v>13.51654933333334</v>
       </c>
       <c r="H24">
-        <v>58.20679800000001</v>
+        <v>40.549648</v>
       </c>
       <c r="I24">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="J24">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N24">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q24">
-        <v>4833.743073250546</v>
+        <v>1721.959630873222</v>
       </c>
       <c r="R24">
-        <v>43503.68765925492</v>
+        <v>15497.63667785899</v>
       </c>
       <c r="S24">
-        <v>0.113879380493859</v>
+        <v>0.06860744441449579</v>
       </c>
       <c r="T24">
-        <v>0.113879380493859</v>
+        <v>0.06860744441449579</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>19.402266</v>
+        <v>13.51654933333334</v>
       </c>
       <c r="H25">
-        <v>58.20679800000001</v>
+        <v>40.549648</v>
       </c>
       <c r="I25">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="J25">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N25">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q25">
-        <v>338.7721272267281</v>
+        <v>262.5454722727325</v>
       </c>
       <c r="R25">
-        <v>3048.949145040553</v>
+        <v>2362.909250454592</v>
       </c>
       <c r="S25">
-        <v>0.007981218569654605</v>
+        <v>0.01046050881349332</v>
       </c>
       <c r="T25">
-        <v>0.007981218569654606</v>
+        <v>0.01046050881349332</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>19.402266</v>
+        <v>13.51654933333334</v>
       </c>
       <c r="H26">
-        <v>58.20679800000001</v>
+        <v>40.549648</v>
       </c>
       <c r="I26">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="J26">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N26">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q26">
-        <v>3626.886660708299</v>
+        <v>1748.005530337263</v>
       </c>
       <c r="R26">
-        <v>32641.97994637469</v>
+        <v>15732.04977303536</v>
       </c>
       <c r="S26">
-        <v>0.08544674381403426</v>
+        <v>0.06964518221488694</v>
       </c>
       <c r="T26">
-        <v>0.08544674381403426</v>
+        <v>0.06964518221488693</v>
       </c>
     </row>
   </sheetData>
